--- a/AtServerEngine/Data/Spawn/MonsterSpawn.xlsx
+++ b/AtServerEngine/Data/Spawn/MonsterSpawn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\Game\T_Survivor\AtServerEngine\Data\Spawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66946D3-C1C2-4BDA-B869-0C83FF2728BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65AE2A-C41A-4C3C-8D52-658191AF5820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="3225" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="46350" yWindow="6960" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterSpawn" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,21 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4D16BC-F9B1-4F49-9440-843C48817A79}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -571,13 +580,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -585,13 +597,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,10 +617,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -618,49 +636,61 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
         <v>1001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
         <v>1002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
         <v>1003</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
